--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -255,16 +255,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,9 +283,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,39 +358,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +384,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,44 +393,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,13 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,19 +437,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +515,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,103 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +616,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -627,15 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +666,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -698,6 +687,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,145 +706,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1958,7 +1958,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -142,22 +142,37 @@
     <t>Level</t>
   </si>
   <si>
-    <t>11,21,31,1010,1060,100110,100120</t>
-  </si>
-  <si>
-    <t>11,21,31,2010,2070,100210,100220</t>
-  </si>
-  <si>
-    <t>11,21,31,3010,3110,100310,100320</t>
-  </si>
-  <si>
-    <t>11,21,31,4010,4030,100410,100420</t>
-  </si>
-  <si>
-    <t>11,21,31,5010,100510,100520</t>
-  </si>
-  <si>
-    <t>11,21,31,1010,1030,100610,100620</t>
+    <t>1010,1060</t>
+  </si>
+  <si>
+    <t>100110,100120</t>
+  </si>
+  <si>
+    <t>2010,2070</t>
+  </si>
+  <si>
+    <t>100210,100220</t>
+  </si>
+  <si>
+    <t>3010,3110</t>
+  </si>
+  <si>
+    <t>100310,100320</t>
+  </si>
+  <si>
+    <t>4010,4030</t>
+  </si>
+  <si>
+    <t>100410,100420</t>
+  </si>
+  <si>
+    <t>100510,100520</t>
+  </si>
+  <si>
+    <t>1010,1030</t>
+  </si>
+  <si>
+    <t>100610,100620</t>
   </si>
   <si>
     <t>TriggerType1</t>
@@ -240,37 +255,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,30 +277,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,8 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,14 +315,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,11 +335,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,6 +360,30 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -397,6 +405,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,7 +422,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +506,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,55 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,73 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,15 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -643,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +666,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,7 +721,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,7 +730,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,127 +739,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1224,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1955,22 +1970,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="44.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="44.2727272727273" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
@@ -1981,7 +1996,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C2">
@@ -1990,174 +2005,168 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11060</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>401060</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11060</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>401060</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
         <v>1020</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>12080</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>12040</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2060</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12080</v>
       </c>
       <c r="C9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12040</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>13080</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2060</v>
       </c>
       <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>403010</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3040</v>
-      </c>
-      <c r="C13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13080</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>14080</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>403010</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>404030</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3040</v>
       </c>
       <c r="C16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>4060</v>
-      </c>
-      <c r="C17">
-        <v>41</v>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>15090</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14080</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -2165,10 +2174,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>405070</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>404030</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -2176,10 +2185,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>5040</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4060</v>
       </c>
       <c r="C21">
         <v>41</v>
@@ -2187,42 +2196,99 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>11040</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>401030</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15090</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>405070</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5040</v>
+      </c>
+      <c r="C26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11040</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>401030</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
         <v>1070</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <v>41</v>
       </c>
     </row>
@@ -2254,10 +2320,10 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3126,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="39" spans="1:4">
@@ -3140,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="39" spans="1:4">
@@ -3154,13 +3220,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="39" spans="1:4">
@@ -3168,13 +3234,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="39" spans="1:4">
@@ -3182,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="52" spans="1:4">
@@ -3196,13 +3262,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:4">
@@ -3210,13 +3276,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -269,8 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,16 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,27 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -335,8 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,25 +347,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,18 +362,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,13 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +458,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,55 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,31 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,37 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +613,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,48 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,6 +687,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -721,145 +721,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1576,7 +1576,7 @@
         <v>99</v>
       </c>
       <c r="I4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1782,7 +1782,7 @@
         <v>99</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1972,7 +1972,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -255,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -270,59 +270,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -337,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,7 +309,66 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -377,14 +383,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,22 +407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +470,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +518,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,121 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +613,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,80 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,7 +721,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,7 +730,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,127 +739,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1673,13 +1673,13 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>99</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>5</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <t>100510,100520</t>
   </si>
   <si>
-    <t>1010,1030</t>
+    <t>6010,6020</t>
   </si>
   <si>
     <t>100610,100620</t>
@@ -255,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -266,6 +266,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,16 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +314,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -316,57 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -375,39 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,55 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +616,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,11 +649,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,30 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,145 +721,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1223,7 @@
   <sheetPr/>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1972,7 +1972,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -255,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -270,37 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,61 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +301,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,17 +399,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,13 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,31 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +470,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +518,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,43 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,31 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,17 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,15 +681,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -713,6 +689,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,145 +721,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1570,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>99</v>
@@ -1972,7 +1972,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <t>100510,100520</t>
   </si>
   <si>
-    <t>6010,6020</t>
+    <t>1010,5120,12040</t>
   </si>
   <si>
     <t>100610,100620</t>
@@ -270,7 +270,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,24 +298,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -330,16 +351,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,9 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,44 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,79 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +548,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,43 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +613,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,15 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -681,20 +663,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +684,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,7 +721,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,7 +730,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,127 +739,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1972,7 +1972,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F342E7E-3167-4F23-9C59-21C10DF78695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,18 @@
     <sheet name="SkillTrigger" sheetId="4" r:id="rId3"/>
     <sheet name="TextData" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,9 +207,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>エリシャ</t>
-  </si>
-  <si>
     <t>Alisha</t>
   </si>
   <si>
@@ -248,19 +262,17 @@
   <si>
     <t>味方のCTを短縮することができるサポーター。
 CT（魔法を再使用するまでのターン数）を短縮しパーティ全体の補助をすることができる。</t>
+  </si>
+  <si>
+    <t>ミカ</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,344 +282,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -615,255 +312,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,62 +328,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,33 +629,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="7.54545454545455" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="6.18181818181818" customWidth="1"/>
-    <col min="8" max="8" width="6.81818181818182" customWidth="1"/>
-    <col min="9" max="9" width="6.45454545454545" customWidth="1"/>
-    <col min="10" max="10" width="6.63636363636364" customWidth="1"/>
-    <col min="11" max="12" width="7.09090909090909" customWidth="1"/>
-    <col min="13" max="13" width="7.36363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" customWidth="1"/>
+    <col min="11" max="12" width="7.08984375" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1351,7 +765,7 @@
       </c>
       <c r="C2" t="str">
         <f>INDEX(TextData!B:B,MATCH(B2,TextData!A:A))</f>
-        <v>エリシャ</v>
+        <v>ミカ</v>
       </c>
       <c r="D2" t="str">
         <f>INDEX(TextData!C:C,MATCH(B2,TextData!A:A))</f>
@@ -1445,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1548,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1651,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1754,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1857,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1961,27 +1375,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.2727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +1405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2003,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2014,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -2025,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2036,7 +1449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
@@ -2047,7 +1460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2055,7 +1468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2063,7 +1476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2074,7 +1487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2085,7 +1498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2096,7 +1509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2104,7 +1517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2112,7 +1525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2123,7 +1536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2134,7 +1547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2145,7 +1558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2153,7 +1566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2161,7 +1574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2172,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2183,7 +1596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2194,7 +1607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2202,7 +1615,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
@@ -2210,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2221,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2232,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>15</v>
       </c>
@@ -2243,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2251,7 +1664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>16</v>
       </c>
@@ -2259,7 +1672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>16</v>
       </c>
@@ -2270,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>16</v>
       </c>
@@ -2281,7 +1694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2293,26 +1706,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A62" sqref="$A62:$XFD115"/>
+      <selection activeCell="A62" sqref="A62:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2326,7 +1738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2340,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2354,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2368,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2382,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2396,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2410,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2424,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2438,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2452,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2466,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2480,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2494,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2508,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2522,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2536,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2550,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2564,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2578,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2592,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2606,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2620,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2634,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2648,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2662,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2676,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2690,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2704,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2718,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2732,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2746,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2760,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2774,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2788,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2802,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2816,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2830,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2844,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2858,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2872,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2886,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2900,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2914,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2928,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2942,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2956,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2970,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2984,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2998,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3012,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -3026,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3040,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3054,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3068,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3082,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3096,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3110,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3124,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3138,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3152,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3167,27 +2579,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="45.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3201,92 +2612,92 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="39" spans="1:4">
+    <row r="2" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" ht="39" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="39" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" ht="39" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="52" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" ht="39" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>